--- a/mins/upload/upload/华泰大赛参赛私募基金数据填报模板.xlsx
+++ b/mins/upload/upload/华泰大赛参赛私募基金数据填报模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="12210" activeTab="3"/>
+    <workbookView windowWidth="18480" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="产品披露授权函" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>★机构全名</t>
   </si>
   <si>
-    <t>**投资管理有限公司</t>
+    <t>汇金投资管理有限公司</t>
   </si>
   <si>
     <t>★登记编号</t>
@@ -782,14 +782,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,13 +836,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1083,12 +1076,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1113,12 +1100,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1126,12 +1107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,31 +1142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,25 +1178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,7 +1220,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,10 +1403,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1422,133 +1415,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,19 +1579,19 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,49 +1603,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2382,12 +2375,12 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
@@ -2945,12 +2938,12 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
